--- a/weather_activities.xlsx
+++ b/weather_activities.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sldom\PycharmProjects\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sldom\PycharmProjects\Assignment 2a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0182679E-D07D-4858-B85E-0909DCBB0CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D49B7-D9C3-4584-875C-0D426CE587CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Weather Condition</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Activities</t>
+  </si>
+  <si>
+    <t>overcast clouds</t>
+  </si>
+  <si>
+    <t>Go to the local library, Visit a coffee shop</t>
   </si>
 </sst>
 </file>
@@ -404,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +486,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B191">
     <sortCondition ref="A1:A191"/>
